--- a/Data/EC/NIT-9002132471.xlsx
+++ b/Data/EC/NIT-9002132471.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0CA3278-1139-46FD-996B-9AD72B09408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6F582E-0E7C-4079-A25A-8D7E0F659972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5276886-5E12-4380-A73C-4EAC600F328C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8922CC16-DE1D-4686-9E36-9707428E6A05}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,6 +71,24 @@
     <t>LUIS MIGUEL CASTRO NUNEZ</t>
   </si>
   <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
     <t>2203</t>
   </si>
   <si>
@@ -80,24 +98,6 @@
     <t>GREY ADRIANA TORRES TORRES</t>
   </si>
   <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
     <t>43163042</t>
   </si>
   <si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>2310</t>
+  </si>
+  <si>
+    <t>9002132471</t>
+  </si>
+  <si>
+    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -518,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66912348-C82D-2572-7571-1FC2BB9CB3A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677BE76D-56AE-AF4A-DA67-EAE5349E09B4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,8 +875,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66123C4D-3E11-4245-BC65-88488CDC6DC7}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5906786-F92E-410A-A91D-8A209DD9F08A}">
+  <dimension ref="B2:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -894,7 +900,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -939,7 +945,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -971,12 +977,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>461334</v>
+        <v>1177067</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -987,17 +993,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F13" s="5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1024,13 +1030,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1047,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1061,19 +1067,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>11</v>
-      </c>
       <c r="F17" s="18">
-        <v>10667</v>
+        <v>40000</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1084,19 +1090,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
       </c>
       <c r="G18" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1153,19 +1159,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1176,19 +1182,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1199,19 +1205,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1222,19 +1228,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1245,13 +1251,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
@@ -1268,13 +1274,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
@@ -1291,19 +1297,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1314,75 +1320,96 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F28" s="18">
-        <v>40000</v>
+        <v>10667</v>
       </c>
       <c r="G28" s="18">
-        <v>1000000</v>
+        <v>1300000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="18">
         <v>2667</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="18">
         <v>2000000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F30" s="24">
+        <v>715733</v>
+      </c>
+      <c r="G30" s="24">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="26"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C35" s="32"/>
       <c r="H35" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002132471.xlsx
+++ b/Data/EC/NIT-9002132471.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF6F582E-0E7C-4079-A25A-8D7E0F659972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D01E739-3683-4F1B-AB6A-1F4D45369563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8922CC16-DE1D-4686-9E36-9707428E6A05}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B54FD359-9774-4DED-BE04-1DA52A4C32D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="34">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,33 +71,33 @@
     <t>LUIS MIGUEL CASTRO NUNEZ</t>
   </si>
   <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>1007254655</t>
+  </si>
+  <si>
+    <t>GREY ADRIANA TORRES TORRES</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
     <t>2209</t>
   </si>
   <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>1007254655</t>
-  </si>
-  <si>
-    <t>GREY ADRIANA TORRES TORRES</t>
-  </si>
-  <si>
     <t>43163042</t>
   </si>
   <si>
@@ -105,12 +105,6 @@
   </si>
   <si>
     <t>2310</t>
-  </si>
-  <si>
-    <t>9002132471</t>
-  </si>
-  <si>
-    <t>1606</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -209,7 +203,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -222,9 +218,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -424,23 +418,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -468,10 +462,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,7 +518,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{677BE76D-56AE-AF4A-DA67-EAE5349E09B4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42FA451-F0AA-8A2F-806B-42EBC907E7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -875,8 +869,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5906786-F92E-410A-A91D-8A209DD9F08A}">
-  <dimension ref="B2:J36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F749E-0838-425F-B6B7-F25CD3E31CCF}">
+  <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -900,7 +894,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -945,7 +939,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -977,12 +971,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1177067</v>
+        <v>461334</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -993,17 +987,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F13" s="5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1030,13 +1024,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1053,7 +1047,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>40000</v>
+        <v>8000</v>
       </c>
       <c r="G16" s="18">
         <v>1000000</v>
@@ -1067,19 +1061,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>40000</v>
+        <v>10667</v>
       </c>
       <c r="G17" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1096,7 +1090,7 @@
         <v>10</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
@@ -1113,10 +1107,10 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
         <v>14</v>
@@ -1125,7 +1119,7 @@
         <v>40000</v>
       </c>
       <c r="G19" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1159,19 +1153,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21" s="18">
         <v>40000</v>
       </c>
       <c r="G21" s="18">
-        <v>1000000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1188,10 +1182,10 @@
         <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F22" s="18">
-        <v>8000</v>
+        <v>40000</v>
       </c>
       <c r="G22" s="18">
         <v>1000000</v>
@@ -1205,19 +1199,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F23" s="18">
         <v>40000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1228,19 +1222,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="F24" s="18">
         <v>40000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1251,19 +1245,19 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F25" s="18">
         <v>40000</v>
       </c>
       <c r="G25" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1274,19 +1268,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F26" s="18">
         <v>40000</v>
       </c>
       <c r="G26" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1297,19 +1291,19 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F27" s="18">
         <v>40000</v>
       </c>
       <c r="G27" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1320,96 +1314,75 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="E28" s="16" t="s">
-        <v>17</v>
-      </c>
       <c r="F28" s="18">
-        <v>10667</v>
+        <v>40000</v>
       </c>
       <c r="G28" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16" t="s">
+      <c r="C29" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="17" t="s">
+      <c r="D29" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="16" t="s">
+      <c r="E29" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="18">
+      <c r="F29" s="24">
         <v>2667</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="24">
         <v>2000000</v>
       </c>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B30" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="23"/>
-      <c r="E30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="24">
-        <v>715733</v>
-      </c>
-      <c r="G30" s="24">
-        <v>0</v>
-      </c>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="26"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="32" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C35" s="32"/>
       <c r="H35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="32"/>
-      <c r="H36" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9002132471.xlsx
+++ b/Data/EC/NIT-9002132471.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D01E739-3683-4F1B-AB6A-1F4D45369563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B859B3B1-3379-4FF9-892F-CA5767380EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B54FD359-9774-4DED-BE04-1DA52A4C32D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{1C6511F8-11C7-4002-8952-2480C76A7071}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -148,7 +148,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,9 +203,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -218,7 +216,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -412,29 +412,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -453,19 +453,25 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -518,7 +524,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E42FA451-F0AA-8A2F-806B-42EBC907E7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C22793D-5448-9A96-D9A6-2B426AC22556}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -869,80 +875,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6F749E-0838-425F-B6B7-F25CD3E31CCF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889BC5C1-7D75-4385-B155-064E00D31AF4}">
   <dimension ref="B2:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="29" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+    </row>
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="30"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+    </row>
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C4" s="30"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+    </row>
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C5" s="30"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+    </row>
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C7" s="4"/>
-      <c r="D7" s="27"/>
+      <c r="D7" s="29"/>
       <c r="E7" s="6" t="s">
         <v>7</v>
       </c>
@@ -952,13 +958,13 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="27"/>
+      <c r="D9" s="29"/>
       <c r="E9" s="6">
         <v>9002132471</v>
       </c>
@@ -968,13 +974,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="27"/>
+      <c r="D11" s="29"/>
       <c r="E11" s="7">
         <v>461334</v>
       </c>
@@ -984,8 +990,8 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
@@ -1004,7 +1010,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1039,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1043,20 +1049,20 @@
       <c r="D16" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="19">
         <v>8000</v>
       </c>
-      <c r="G16" s="18">
+      <c r="G16" s="19">
         <v>1000000</v>
       </c>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="21"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
@@ -1066,20 +1072,20 @@
       <c r="D17" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="18">
+      <c r="F17" s="19">
         <v>10667</v>
       </c>
-      <c r="G17" s="18">
+      <c r="G17" s="19">
         <v>1423500</v>
       </c>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="21"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
@@ -1089,20 +1095,20 @@
       <c r="D18" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="19">
         <v>40000</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="19">
         <v>1000000</v>
       </c>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="21"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
@@ -1112,20 +1118,20 @@
       <c r="D19" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="16" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="19">
         <v>40000</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="19">
         <v>1423500</v>
       </c>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="21"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
@@ -1135,20 +1141,20 @@
       <c r="D20" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E20" s="16" t="s">
+      <c r="E20" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="19">
         <v>40000</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>1000000</v>
       </c>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="21"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1158,20 +1164,20 @@
       <c r="D21" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="19">
         <v>40000</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>1423500</v>
       </c>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
@@ -1181,20 +1187,20 @@
       <c r="D22" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="19">
         <v>40000</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>1000000</v>
       </c>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
@@ -1204,20 +1210,20 @@
       <c r="D23" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="19">
         <v>40000</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>1423500</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
@@ -1227,20 +1233,20 @@
       <c r="D24" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E24" s="16" t="s">
+      <c r="E24" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="19">
         <v>40000</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G24" s="19">
         <v>1000000</v>
       </c>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
@@ -1250,20 +1256,20 @@
       <c r="D25" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="18">
+      <c r="F25" s="19">
         <v>40000</v>
       </c>
-      <c r="G25" s="18">
+      <c r="G25" s="19">
         <v>1423500</v>
       </c>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="21"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
@@ -1273,20 +1279,20 @@
       <c r="D26" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="19">
         <v>40000</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G26" s="19">
         <v>1000000</v>
       </c>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="21"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
@@ -1296,20 +1302,20 @@
       <c r="D27" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="16" t="s">
+      <c r="E27" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="F27" s="18">
+      <c r="F27" s="19">
         <v>40000</v>
       </c>
-      <c r="G27" s="18">
+      <c r="G27" s="19">
         <v>1423500</v>
       </c>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="21"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
@@ -1319,58 +1325,58 @@
       <c r="D28" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="16" t="s">
+      <c r="E28" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="19">
         <v>40000</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>1000000</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
+      <c r="H28" s="20"/>
+      <c r="I28" s="20"/>
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="E29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="26">
         <v>2667</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="26">
         <v>2000000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="32"/>
+      <c r="C34" s="34"/>
       <c r="H34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
+    <row r="35" spans="2:10">
+      <c r="B35" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="32"/>
+      <c r="C35" s="34"/>
       <c r="H35" s="1" t="s">
         <v>33</v>
       </c>
